--- a/aktivgroup_notificador_proyectos.xlsx
+++ b/aktivgroup_notificador_proyectos.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aledm\Desktop\Aktivgroup\Demo Proyecto\Demo Notificador de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C84488-E268-4C5E-A8C0-96EE7BF54F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923320F-BD52-470B-9BE8-1B015BAAB281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
+    <sheet name="Optimización Data Lake" sheetId="5" r:id="rId2"/>
+    <sheet name="Automatización Reportes" sheetId="4" r:id="rId3"/>
+    <sheet name="Dashboard Ventas" sheetId="3" r:id="rId4"/>
+    <sheet name="Migración BI" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="182">
   <si>
     <t>Cliente</t>
   </si>
@@ -55,52 +72,514 @@
     <t>Correo PM Aktivgroup</t>
   </si>
   <si>
-    <t>AgroSuper</t>
-  </si>
-  <si>
-    <t>Viña Concha y Toro</t>
-  </si>
-  <si>
-    <t>Migración SAP BW → Azure Synapse</t>
-  </si>
-  <si>
-    <t>Tableros de Ventas en Power BI</t>
-  </si>
-  <si>
-    <t>Carga RAW estable; validación KPIs lote 1</t>
-  </si>
-  <si>
-    <t>Modelo dimensional definido; conexión a Lakehouse</t>
-  </si>
-  <si>
-    <t>DAX en tablero 'Rendimiento' requiere ajuste</t>
-  </si>
-  <si>
-    <t>Retraso en entrega de catálogo de productos</t>
-  </si>
-  <si>
-    <t>Optimizar medidas y publicar dataflow SILVER</t>
-  </si>
-  <si>
-    <t>Cargar historial de ventas y armar KPIs</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>María Pérez</t>
-  </si>
-  <si>
-    <t>Belén Huguet</t>
+    <t>Empresa A</t>
+  </si>
+  <si>
+    <t>Empresa B</t>
+  </si>
+  <si>
+    <t>Empresa C</t>
+  </si>
+  <si>
+    <t>Empresa D</t>
+  </si>
+  <si>
+    <t>Empresa E</t>
+  </si>
+  <si>
+    <t>Empresa F</t>
+  </si>
+  <si>
+    <t>Empresa G</t>
+  </si>
+  <si>
+    <t>Empresa H</t>
+  </si>
+  <si>
+    <t>Empresa I</t>
+  </si>
+  <si>
+    <t>Migración BI</t>
+  </si>
+  <si>
+    <t>Dashboard Ventas</t>
+  </si>
+  <si>
+    <t>Optimización Data Lake</t>
+  </si>
+  <si>
+    <t>Automatización Reportes</t>
+  </si>
+  <si>
+    <t>Modelo Predictivo</t>
+  </si>
+  <si>
+    <t>Integración CRM</t>
+  </si>
+  <si>
+    <t>Reporte Producción</t>
+  </si>
+  <si>
+    <t>Auditoría de Datos</t>
+  </si>
+  <si>
+    <t>Data Governance</t>
+  </si>
+  <si>
+    <t>Definición KPIs</t>
+  </si>
+  <si>
+    <t>Carga histórica</t>
+  </si>
+  <si>
+    <t>Pruebas iniciales</t>
+  </si>
+  <si>
+    <t>Conexión API</t>
+  </si>
+  <si>
+    <t>Entrenamiento modelo</t>
+  </si>
+  <si>
+    <t>Integración API</t>
+  </si>
+  <si>
+    <t>Carga diaria</t>
+  </si>
+  <si>
+    <t>Revisión auditoría</t>
+  </si>
+  <si>
+    <t>Diseño políticas</t>
+  </si>
+  <si>
+    <t>Falta acceso SAP</t>
+  </si>
+  <si>
+    <t>Demora en datos</t>
+  </si>
+  <si>
+    <t>Problemas conexión</t>
+  </si>
+  <si>
+    <t>Dependencia externa</t>
+  </si>
+  <si>
+    <t>Calidad de datos</t>
+  </si>
+  <si>
+    <t>Falta documentación</t>
+  </si>
+  <si>
+    <t>Datos incompletos</t>
+  </si>
+  <si>
+    <t>Cambio en requerimientos</t>
+  </si>
+  <si>
+    <t>Dependencia TI</t>
+  </si>
+  <si>
+    <t>Implementar dashboards</t>
+  </si>
+  <si>
+    <t>Revisar ETL</t>
+  </si>
+  <si>
+    <t>Optimizar queries</t>
+  </si>
+  <si>
+    <t>Automatizar alertas</t>
+  </si>
+  <si>
+    <t>Validar accuracy</t>
+  </si>
+  <si>
+    <t>Pruebas integrales</t>
+  </si>
+  <si>
+    <t>Conectar a PowerBI</t>
+  </si>
+  <si>
+    <t>Generar informe final</t>
+  </si>
+  <si>
+    <t>Capacitación usuarios</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-09-20</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>Carlos López</t>
+  </si>
+  <si>
+    <t>María Torres</t>
+  </si>
+  <si>
+    <t>José Ramírez</t>
+  </si>
+  <si>
+    <t>Ana González</t>
+  </si>
+  <si>
+    <t>Pedro Martínez</t>
+  </si>
+  <si>
+    <t>Laura Díaz</t>
+  </si>
+  <si>
+    <t>Andrés Muñoz</t>
+  </si>
+  <si>
+    <t>Sofía Herrera</t>
+  </si>
+  <si>
+    <t>Ricardo Pérez</t>
+  </si>
+  <si>
+    <t>Valentina Soto</t>
+  </si>
+  <si>
+    <t>jose@empresaC.com</t>
+  </si>
+  <si>
+    <t>ana@empresaD.com</t>
+  </si>
+  <si>
+    <t>laura@empresaF.com</t>
+  </si>
+  <si>
+    <t>andres@empresaG.com</t>
+  </si>
+  <si>
+    <t>sofia@empresaH.com</t>
+  </si>
+  <si>
+    <t>ricardo@empresaI.com</t>
+  </si>
+  <si>
+    <t>valentina@empresaJ.com</t>
   </si>
   <si>
     <t>Alexandro Márquez</t>
   </si>
   <si>
-    <t>alexandro@aktivgroup.cl</t>
+    <t>alexandro@aktivgroup.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Levantamiento de requerimientos</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Diseño de arquitectura BI</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Configuración de Data Lake</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Integración con SAP BW</t>
+  </si>
+  <si>
+    <t>Creación de ETL en Synapse</t>
+  </si>
+  <si>
+    <t>Desarrollo de dashboards en PowerBI</t>
+  </si>
+  <si>
+    <t>Validación de datos con cliente</t>
+  </si>
+  <si>
+    <t>Capacitación de usuarios</t>
+  </si>
+  <si>
+    <t>Porcentaje  de avance</t>
+  </si>
+  <si>
+    <t>Avance total del proyecto</t>
+  </si>
+  <si>
+    <t>Porcentaje de avance</t>
+  </si>
+  <si>
+    <t>Revisión KPIs comerciales</t>
+  </si>
+  <si>
+    <t>01-09-2025</t>
+  </si>
+  <si>
+    <t>04-09-2025</t>
+  </si>
+  <si>
+    <t>Modelo de ventas por canal</t>
+  </si>
+  <si>
+    <t>03-09-2025</t>
+  </si>
+  <si>
+    <t>06-09-2025</t>
+  </si>
+  <si>
+    <t>Conexión a ERP Ventas</t>
+  </si>
+  <si>
+    <t>05-09-2025</t>
+  </si>
+  <si>
+    <t>08-09-2025</t>
+  </si>
+  <si>
+    <t>Limpieza y homologación SKUs</t>
+  </si>
+  <si>
+    <t>07-09-2025</t>
+  </si>
+  <si>
+    <t>10-09-2025</t>
+  </si>
+  <si>
+    <t>ETL histórico de ventas</t>
+  </si>
+  <si>
+    <t>09-09-2025</t>
+  </si>
+  <si>
+    <t>12-09-2025</t>
+  </si>
+  <si>
+    <t>Segmentación de clientes</t>
+  </si>
+  <si>
+    <t>11-09-2025</t>
+  </si>
+  <si>
+    <t>14-09-2025</t>
+  </si>
+  <si>
+    <t>Diseño dashboard ejecutivo</t>
+  </si>
+  <si>
+    <t>13-09-2025</t>
+  </si>
+  <si>
+    <t>16-09-2025</t>
+  </si>
+  <si>
+    <t>Pruebas con usuarios clave</t>
+  </si>
+  <si>
+    <t>15-09-2025</t>
+  </si>
+  <si>
+    <t>18-09-2025</t>
+  </si>
+  <si>
+    <t>Ajustes y mejoras UX</t>
+  </si>
+  <si>
+    <t>17-09-2025</t>
+  </si>
+  <si>
+    <t>20-09-2025</t>
+  </si>
+  <si>
+    <t>Capacitación al equipo comercial</t>
+  </si>
+  <si>
+    <t>19-09-2025</t>
+  </si>
+  <si>
+    <t>22-09-2025</t>
+  </si>
+  <si>
+    <t>Identificación de reportes manuales</t>
+  </si>
+  <si>
+    <t>Definición de KPIs a automatizar</t>
+  </si>
+  <si>
+    <t>Conexión a fuentes de datos</t>
+  </si>
+  <si>
+    <t>Construcción de queries SQL</t>
+  </si>
+  <si>
+    <t>ETL para consolidación de reportes</t>
+  </si>
+  <si>
+    <t>Generación de reportes en PowerBI</t>
+  </si>
+  <si>
+    <t>Automatización de envíos programados</t>
+  </si>
+  <si>
+    <t>23-09-2025</t>
+  </si>
+  <si>
+    <t>Pruebas con usuarios finales</t>
+  </si>
+  <si>
+    <t>26-09-2025</t>
+  </si>
+  <si>
+    <t>Documentación de procesos</t>
+  </si>
+  <si>
+    <t>25-09-2025</t>
+  </si>
+  <si>
+    <t>29-09-2025</t>
+  </si>
+  <si>
+    <t>Capacitación de usuarios clave</t>
+  </si>
+  <si>
+    <t>28-09-2025</t>
+  </si>
+  <si>
+    <t>02-10-2025</t>
+  </si>
+  <si>
+    <t>Revisión de arquitectura actual de Data Lake</t>
+  </si>
+  <si>
+    <t>01-10-2025</t>
+  </si>
+  <si>
+    <t>05-10-2025</t>
+  </si>
+  <si>
+    <t>Optimización de almacenamiento en ADLS</t>
+  </si>
+  <si>
+    <t>04-10-2025</t>
+  </si>
+  <si>
+    <t>08-10-2025</t>
+  </si>
+  <si>
+    <t>Implementación de particiones en tablas</t>
+  </si>
+  <si>
+    <t>07-10-2025</t>
+  </si>
+  <si>
+    <t>11-10-2025</t>
+  </si>
+  <si>
+    <t>Mejora de rendimiento en consultas Synapse</t>
+  </si>
+  <si>
+    <t>10-10-2025</t>
+  </si>
+  <si>
+    <t>14-10-2025</t>
+  </si>
+  <si>
+    <t>Automatización de pipelines en Data Factory</t>
+  </si>
+  <si>
+    <t>13-10-2025</t>
+  </si>
+  <si>
+    <t>17-10-2025</t>
+  </si>
+  <si>
+    <t>Configuración de monitoreo y alertas</t>
+  </si>
+  <si>
+    <t>16-10-2025</t>
+  </si>
+  <si>
+    <t>20-10-2025</t>
+  </si>
+  <si>
+    <t>Optimización de costos en Azure</t>
+  </si>
+  <si>
+    <t>19-10-2025</t>
+  </si>
+  <si>
+    <t>23-10-2025</t>
+  </si>
+  <si>
+    <t>Migración de datos históricos a capas frías</t>
+  </si>
+  <si>
+    <t>22-10-2025</t>
+  </si>
+  <si>
+    <t>26-10-2025</t>
+  </si>
+  <si>
+    <t>Refactorización de procesos ETL</t>
+  </si>
+  <si>
+    <t>25-10-2025</t>
+  </si>
+  <si>
+    <t>29-10-2025</t>
+  </si>
+  <si>
+    <t>Documentación y traspaso de conocimiento</t>
+  </si>
+  <si>
+    <t>28-10-2025</t>
+  </si>
+  <si>
+    <t>01-11-2025</t>
+  </si>
+  <si>
+    <t>aledmarquezm@gmail.com</t>
   </si>
   <si>
     <t>al.marquezm@duocuc.cl</t>
@@ -110,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +606,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -135,12 +620,29 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6EEF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,14 +671,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -482,137 +1007,1495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11">
+        <f>'Migración BI'!I2+SUM(A2:B2)</f>
+        <v>18.75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11">
+        <f>'Dashboard Ventas'!I2+SUM(A2:B2)</f>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11">
+        <f>'Optimización Data Lake'!I2</f>
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11">
+        <f>'Automatización Reportes'!I2</f>
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="11">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11">
+        <v>90</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{189D1B16-D1F4-4064-AB62-40374D232184}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{21C78B74-F020-4FAB-B79C-AF0BA3BA1DB0}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{4E074234-B201-4D84-A361-B52DA4A38807}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{E747FE21-B1E6-4272-BBE2-EAC1D6FD8791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35FF2AE-31BF-4D82-81A1-C0C8F7213588}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(IF(COUNTA(G2:G11)=0,"",SUM(G2:G11)/(COUNTA(G2:G11)*100)))*100</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{43FAD6C2-3C4D-474B-BF1B-F26C78A2691E}">
+      <formula1>"Pendiente,En progreso,Completado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D882BE-9887-4BA1-9DC6-D17D00E32F34}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(IF(COUNTA(G2:G11)=0,"",SUM(G2:G11)/(COUNTA(G2:G11)*100)))*100</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9" xr:uid="{0C0C4604-545F-4A7F-A8EF-8E8D4FC92243}">
+      <formula1>"Pendiente,En progreso,Completado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6623C28F-9797-4BA7-9B0E-EBE6F1A0B124}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(IF(COUNTA(G2:G11)=0,"",SUM(G2:G11)/(COUNTA(G2:G11)*100)))*100</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{51F97DC6-E03B-41C7-858B-FBB98567817E}">
+      <formula1>"Pendiente,En progreso,Completado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49252B89-26C7-4327-9D1F-A5FC4E98211A}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45901</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45905</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(IF(COUNTA(G2:G9)=0,"",SUM(G2:G9)/(COUNTA(G2:G9)*100)))*100</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45906</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45908</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45909</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45912</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45913</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45917</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45918</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45921</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45922</v>
+      </c>
+      <c r="E7" s="7">
+        <v>45925</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45926</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45927</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45928</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45930</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>